--- a/data/trans_camb/P38B-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P38B-Edad-trans_camb.xlsx
@@ -618,13 +618,13 @@
         <v>3.786803242166714</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-2.234711720351679</v>
+        <v>-2.23471172035169</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>5.632193010932395</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-3.006473321713909</v>
+        <v>-3.006473321713921</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4726787667087041</v>
+        <v>0.9358343859258483</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-13.10458214396637</v>
+        <v>-12.41835754585138</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.629637354762578</v>
+        <v>-2.527040193349229</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-10.49663093867034</v>
+        <v>-10.62358080156937</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9945135850884742</v>
+        <v>0.8342597131013509</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-9.190665687821706</v>
+        <v>-9.598504173709113</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.77977206411444</v>
+        <v>14.88344465374653</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.436260755005247</v>
+        <v>5.859378426939251</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.34690156144526</v>
+        <v>10.36865560696781</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.110659358562534</v>
+        <v>6.407722021425552</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>10.57125301245812</v>
+        <v>10.63468504902311</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.188617670504218</v>
+        <v>3.130684178004759</v>
       </c>
     </row>
     <row r="7">
@@ -696,13 +696,13 @@
         <v>0.06230120378783922</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>-0.03676590025761188</v>
+        <v>-0.03676590025761206</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1034476605651699</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.0552205208662428</v>
+        <v>-0.055220520866243</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.009353243504394279</v>
+        <v>0.01706742864356923</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.257982864474092</v>
+        <v>-0.245218228072103</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.04039894231984621</v>
+        <v>-0.03948823371138473</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1695025536868328</v>
+        <v>-0.1701937694611862</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.01596447671597661</v>
+        <v>0.01362682214774788</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1618196941066925</v>
+        <v>-0.1697015093844434</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3060962215796112</v>
+        <v>0.3254873719999211</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1427425142873477</v>
+        <v>0.1180917960420768</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1791994637178742</v>
+        <v>0.1808337392774352</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1020339739925617</v>
+        <v>0.1044926984596314</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.206953906935069</v>
+        <v>0.2038217901693412</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06072972809574524</v>
+        <v>0.05998805082935234</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-11.71663465338436</v>
+        <v>-11.9677664924642</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-18.14721509756194</v>
+        <v>-17.99728346412953</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.736004300622169</v>
+        <v>-8.165608266455694</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-14.845061929705</v>
+        <v>-14.90847800390414</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-8.86980295760841</v>
+        <v>-8.537913788583587</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-14.69759006052547</v>
+        <v>-14.71784387458028</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-1.140130968716923</v>
+        <v>-1.847732593932294</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-5.163592488710096</v>
+        <v>-4.992427921303488</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7815670905608301</v>
+        <v>0.9558273465603015</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-4.651277491659341</v>
+        <v>-5.028159032031509</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-1.930232494613631</v>
+        <v>-1.908237488942751</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-5.784857498492165</v>
+        <v>-6.384212748593445</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1499542391410561</v>
+        <v>-0.1521917607230578</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2332042668424166</v>
+        <v>-0.2322912883647072</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.08890609670586413</v>
+        <v>-0.09409613808574278</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1700236922600628</v>
+        <v>-0.174556699887272</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.108439620198133</v>
+        <v>-0.1045312910267125</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1793874798485291</v>
+        <v>-0.1814658035420658</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.01605166144894981</v>
+        <v>-0.0247729933724949</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.06666739422268826</v>
+        <v>-0.06797463889327383</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.009412519750531237</v>
+        <v>0.01125796803563156</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.05706021365431801</v>
+        <v>-0.06073724929211775</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.02485752042395812</v>
+        <v>-0.02417669733269375</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.07302337036824595</v>
+        <v>-0.07961777122525558</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.89641032780936</v>
+        <v>-7.503992384660338</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-14.93259999765288</v>
+        <v>-15.33030076059181</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.664908434476283</v>
+        <v>-8.299111577084531</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-9.760848535372702</v>
+        <v>-9.66384341218153</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-6.888650566433673</v>
+        <v>-7.148884775162164</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-11.23851306827927</v>
+        <v>-11.55524385154968</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3710661925624695</v>
+        <v>0.5142252580526068</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-6.035479101022979</v>
+        <v>-5.585771103040855</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-1.13396882998998</v>
+        <v>-1.359272205243118</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-2.779340897474779</v>
+        <v>-2.570022145791121</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-1.646598801864395</v>
+        <v>-1.286063635783541</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-5.293941245917542</v>
+        <v>-5.436369502889979</v>
       </c>
     </row>
     <row r="19">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.09068811468585718</v>
+        <v>-0.08667963709775521</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1715536099357512</v>
+        <v>-0.1765052843586649</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.09425077834690017</v>
+        <v>-0.08985197353943901</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1074654624634032</v>
+        <v>-0.1051401930207107</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.07702298041147268</v>
+        <v>-0.0807774355756171</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1273891092408935</v>
+        <v>-0.1298167687104717</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.004518812358519852</v>
+        <v>0.006227838636547274</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.07146284537786211</v>
+        <v>-0.06649996122791967</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.01273744862196188</v>
+        <v>-0.01471307983075049</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.0313734815036032</v>
+        <v>-0.02906448695004055</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.01814456610497533</v>
+        <v>-0.01497668503751672</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.06164201350922487</v>
+        <v>-0.06259140249397008</v>
       </c>
     </row>
     <row r="22">
@@ -1092,7 +1092,7 @@
         <v>-2.516203172040143</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-2.714834477656847</v>
+        <v>-2.714834477656858</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.02536437872028285</v>
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.922596470132189</v>
+        <v>-6.287447024854527</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.155345186389493</v>
+        <v>-6.285089473647274</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.208075636445487</v>
+        <v>-3.167916875570905</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.671192117132184</v>
+        <v>-2.50457119775143</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.646059172089932</v>
+        <v>-3.67421030080608</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.458731301045531</v>
+        <v>-3.526249356463317</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.357354913058179</v>
+        <v>1.396151558095851</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.034645654468317</v>
+        <v>1.073845357535553</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.679000250672518</v>
+        <v>3.345911558937874</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.538687495975462</v>
+        <v>3.419142767190575</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.18978258864441</v>
+        <v>1.448851470231529</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.165219081183589</v>
+        <v>1.146511294576984</v>
       </c>
     </row>
     <row r="25">
@@ -1170,7 +1170,7 @@
         <v>-0.02782332943640841</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.03001972768992325</v>
+        <v>-0.03001972768992337</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>0.000279714476353826</v>
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.06418201465224786</v>
+        <v>-0.06843812468218825</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.06689584670239909</v>
+        <v>-0.06871157453892765</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.03456141074777088</v>
+        <v>-0.0347835098787334</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.02867088538914147</v>
+        <v>-0.02714745266489097</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.03948340864602336</v>
+        <v>-0.04038287533371307</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.03775766318865125</v>
+        <v>-0.03841059520366188</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.01502156702130518</v>
+        <v>0.01557170832670395</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.01097195260154254</v>
+        <v>0.01224330928093188</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.04145197306085294</v>
+        <v>0.03773162838206444</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.03976219472564266</v>
+        <v>0.03884446789760092</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.01327283200254606</v>
+        <v>0.01623476928380781</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01297023835935608</v>
+        <v>0.01289765243212132</v>
       </c>
     </row>
     <row r="28">
@@ -1252,13 +1252,13 @@
         <v>-0.905120522163172</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-1.34312396529378</v>
+        <v>-1.343123965293802</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>-1.539019823135235</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-0.06283615001194676</v>
+        <v>-0.06283615001193565</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>-1.233827784793062</v>
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.204622446085101</v>
+        <v>-4.797219078160591</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.539361737186261</v>
+        <v>-4.510265562663676</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.72132270798644</v>
+        <v>-4.722756374130946</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.360906900778617</v>
+        <v>-2.290648627237029</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.565184227266746</v>
+        <v>-3.456966572014826</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.832342591164385</v>
+        <v>-2.696293705288799</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.915642167555998</v>
+        <v>2.729430547473084</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.021557245400419</v>
+        <v>2.669147944720796</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.401769295500437</v>
+        <v>1.405038065759068</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.626106098345911</v>
+        <v>2.995492741247772</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.306683233451386</v>
+        <v>1.266575416123296</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.395233515654718</v>
+        <v>1.378539993958745</v>
       </c>
     </row>
     <row r="31">
@@ -1330,13 +1330,13 @@
         <v>-0.009718321587686882</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.01442118514301128</v>
+        <v>-0.01442118514301152</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>-0.01615516997952583</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>-0.0006595942878981253</v>
+        <v>-0.0006595942878980087</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>-0.01309440877927281</v>
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.04428014898385817</v>
+        <v>-0.05040265412971486</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.04784410241339102</v>
+        <v>-0.04776152926699934</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.04913482228083135</v>
+        <v>-0.04890671169846014</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.02452117356324852</v>
+        <v>-0.02380268102959923</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.03759487941190624</v>
+        <v>-0.03616337902107145</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.02958863355703047</v>
+        <v>-0.0280884945820595</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.03212255237686733</v>
+        <v>0.02981166761102572</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.02194321433848409</v>
+        <v>0.02963312369806704</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.01492334116981325</v>
+        <v>0.01505503167559162</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.0280506558309077</v>
+        <v>0.03224678038116587</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.01396283351353851</v>
+        <v>0.01358581173176837</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01515852861062923</v>
+        <v>0.01506474858605656</v>
       </c>
     </row>
     <row r="34">
@@ -1418,13 +1418,13 @@
         <v>2.558792831384404</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>2.086280665790097</v>
+        <v>2.086280665790086</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>1.845925130275017</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>0.5432607231252495</v>
+        <v>0.5432607231252606</v>
       </c>
     </row>
     <row r="35">
@@ -1435,22 +1435,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.453294545076167</v>
+        <v>-1.403700430191893</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.722608144976774</v>
+        <v>-4.077796850251759</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.08205424793577602</v>
+        <v>0.1315733108045482</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.2117238383360801</v>
+        <v>-0.3040493963412077</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>0.08216451912825677</v>
+        <v>-0.1627417447382477</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.248982212651343</v>
+        <v>-1.213378299513266</v>
       </c>
     </row>
     <row r="36">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.450686871724837</v>
+        <v>4.616867304064224</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.889546519786916</v>
+        <v>2.12207893599044</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5.297506690283364</v>
+        <v>5.297438138991336</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4.797383255042711</v>
+        <v>4.86317800875208</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>4.113017591826703</v>
+        <v>3.96117413922642</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2.663537442828167</v>
+        <v>2.71703871771761</v>
       </c>
     </row>
     <row r="37">
@@ -1496,13 +1496,13 @@
         <v>0.02685467753046735</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>0.02189563525059954</v>
+        <v>0.02189563525059942</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01925305723051613</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.005666226447582789</v>
+        <v>0.005666226447582905</v>
       </c>
     </row>
     <row r="38">
@@ -1513,22 +1513,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.0148188085735195</v>
+        <v>-0.01432734909909748</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.03821174868611264</v>
+        <v>-0.04144407832806873</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.0005038074851589838</v>
+        <v>0.001377561747785763</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.002332230019600286</v>
+        <v>-0.004045551040955835</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.0008667801754532277</v>
+        <v>-0.001636166413941486</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.01284112958278614</v>
+        <v>-0.01248921936459706</v>
       </c>
     </row>
     <row r="39">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.04734911066440274</v>
+        <v>0.04915427497605968</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.02007555859115749</v>
+        <v>0.02197673356506267</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.05753254896171839</v>
+        <v>0.05686373435515014</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.05105485438534187</v>
+        <v>0.05149625182827852</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.04368827390413343</v>
+        <v>0.04184351213931361</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.02830122152949274</v>
+        <v>0.02884881909076168</v>
       </c>
     </row>
     <row r="40">
@@ -1572,7 +1572,7 @@
         <v>4.668415031351913</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>5.332547044756552</v>
+        <v>5.332547044756575</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>1.000039125787322</v>
@@ -1584,7 +1584,7 @@
         <v>2.433616441274933</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>1.568345343607458</v>
+        <v>1.56834534360748</v>
       </c>
     </row>
     <row r="41">
@@ -1595,22 +1595,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.421577445732586</v>
+        <v>1.593582548224159</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>2.229793605593695</v>
+        <v>2.314244846278308</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.725794069541359</v>
+        <v>-1.510397177363071</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.945104420843545</v>
+        <v>-3.23746513826793</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>0.5508569528753898</v>
+        <v>0.5408493276644426</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.4765815242827951</v>
+        <v>-0.3021465077622945</v>
       </c>
     </row>
     <row r="42">
@@ -1621,22 +1621,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>9.132028465255081</v>
+        <v>9.14585116168089</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>10.01475034955031</v>
+        <v>9.50256143681297</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3.266271790193725</v>
+        <v>3.36609851678549</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.49764999703902</v>
+        <v>1.316932176690445</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>4.563415426485175</v>
+        <v>4.453144142866639</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>3.827979071411077</v>
+        <v>3.528683042019137</v>
       </c>
     </row>
     <row r="43">
@@ -1650,7 +1650,7 @@
         <v>0.04998625721553576</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>0.05709733740531537</v>
+        <v>0.05709733740531561</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>0.01029321681213002</v>
@@ -1662,7 +1662,7 @@
         <v>0.02543354787155706</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01639066275985417</v>
+        <v>0.01639066275985441</v>
       </c>
     </row>
     <row r="44">
@@ -1673,22 +1673,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.01476569986884377</v>
+        <v>0.01668715223473864</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.02333736940633544</v>
+        <v>0.02410559537576723</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.01740003330665015</v>
+        <v>-0.0147967860704426</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.02999134453706963</v>
+        <v>-0.03294712017626384</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.005698474703061051</v>
+        <v>0.005366435331607959</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.004870904767168806</v>
+        <v>-0.003114712453877457</v>
       </c>
     </row>
     <row r="45">
@@ -1699,22 +1699,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1026575550696426</v>
+        <v>0.1024199905756066</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1121638785412944</v>
+        <v>0.1067702340559189</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.03411508517719789</v>
+        <v>0.03531321604020259</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.01556956731050764</v>
+        <v>0.0137780858402539</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.04848692403369274</v>
+        <v>0.04704922544609018</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.04071391139981199</v>
+        <v>0.03746166276688728</v>
       </c>
     </row>
     <row r="46">
@@ -1738,13 +1738,13 @@
         <v>-0.3788425781194094</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>-1.088113216645636</v>
+        <v>-1.088113216645659</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>-0.3049295880907299</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-1.599970686990138</v>
+        <v>-1.599970686990126</v>
       </c>
     </row>
     <row r="47">
@@ -1755,22 +1755,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.249079516217912</v>
+        <v>-2.191372095678468</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-4.369135993383395</v>
+        <v>-4.212338187798579</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.954030160954456</v>
+        <v>-2.012297171736551</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-2.650113891894207</v>
+        <v>-2.676672783771787</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.405089965378818</v>
+        <v>-1.680806961345379</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-3.111955856274668</v>
+        <v>-2.857467385937147</v>
       </c>
     </row>
     <row r="48">
@@ -1781,22 +1781,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.520282488203124</v>
+        <v>1.751812654605152</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-0.1696324339417973</v>
+        <v>0.03458026640793865</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.100036008289542</v>
+        <v>1.109186448118803</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.6247052912811685</v>
+        <v>0.4622465559435642</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.969543016994414</v>
+        <v>0.9005751566887402</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-0.3486143648482871</v>
+        <v>-0.214895153022741</v>
       </c>
     </row>
     <row r="49">
@@ -1816,13 +1816,13 @@
         <v>-0.004315520567088463</v>
       </c>
       <c r="F49" s="6" t="n">
-        <v>-0.01239505598622271</v>
+        <v>-0.01239505598622296</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>-0.003586746716238485</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.01881972045930878</v>
+        <v>-0.01881972045930865</v>
       </c>
     </row>
     <row r="50">
@@ -1833,22 +1833,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.02709748146504838</v>
+        <v>-0.02645420201190095</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.0527159708903282</v>
+        <v>-0.05081193534047024</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.02207441554317321</v>
+        <v>-0.02285122623838167</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.03012016791257461</v>
+        <v>-0.03019835541331583</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.01641700870080642</v>
+        <v>-0.01954297693098398</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.03628907976707773</v>
+        <v>-0.0334967184374209</v>
       </c>
     </row>
     <row r="51">
@@ -1859,22 +1859,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.01861294197759219</v>
+        <v>0.02162060730814564</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.002331490449523767</v>
+        <v>0.0004080641809078982</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.01269598266302454</v>
+        <v>0.01267902434467606</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.007136946472816904</v>
+        <v>0.005502466810203127</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.01156438562676892</v>
+        <v>0.01071206539202251</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.004114978843518179</v>
+        <v>-0.002585762623549505</v>
       </c>
     </row>
     <row r="52">
